--- a/AAA/myRepo-master/cypress/fixtures/viettelkeyword1.xlsx
+++ b/AAA/myRepo-master/cypress/fixtures/viettelkeyword1.xlsx
@@ -22,7 +22,7 @@
     <t>Template content</t>
   </si>
   <si>
-    <t>Acetorphine</t>
+    <t xml:space="preserve"> tukhoachanngoai</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
